--- a/Data/sovi_data_pop.xlsx
+++ b/Data/sovi_data_pop.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\SKRIPSI\EXPERIMENT SKRIPSI\FGWC\DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Drive\deden-RMarkdown &amp; Github\FGWC\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEE3686-7B81-4E12-9F2D-25A0A9B2C03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE28C531-27DB-4E5A-B878-D4D8D99D9A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -364,2559 +360,2559 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>91372</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>119490</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>231893</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>208481</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>419594</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>204273</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>201682</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>409109</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>432599</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>453224</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>602554</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>145726</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>91024</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>287007</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>161329</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>89618</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>142526</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>154795</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>259913</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>33978</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>171574</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>198980</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>78725</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>137588</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>439505</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>278587</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>363705</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>297806</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>181790</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>478593</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>718718</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>859228</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>281876</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>403207</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2114627</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1028309</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>314395</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>186694</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>47183</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>125099</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>612924</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>409091</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>262895</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>269799</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>326825</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>357691</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>136090</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>85801</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>87090</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>171187</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>251513</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>160686</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2247425</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>270926</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>216013</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>139281</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>88692</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>457285</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>368691</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>230104</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>346578</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>411003</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>484288</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>376072</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>275728</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>165603</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>235476</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>427295</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>927011</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>68602</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>61398</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>52422</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>126804</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>131819</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>86618</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>321216</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>425897</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>722234</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>438788</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>465414</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>832387</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>641208</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>559081</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>679663</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>183297</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>1091088</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>297638</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>236782</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>377905</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>290231</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>266971</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>421179</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>216777</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>322527</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>343003</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>359590</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>591134</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>88918</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>359092</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>809203</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>618762</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>401494</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>394384</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>629791</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>833625</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>352926</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>663481</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>419773</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>244312</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>184671</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>187635</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>1623099</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>182128</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>136605</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>226002</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>155427</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>258763</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>298757</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118586</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>189874</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>185499</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>113042</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>134938</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>111318</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>368065</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>298286</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>586624</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>992763</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>1027476</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>1261498</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>612100</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>441922</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>440511</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>435827</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>393901</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>198092</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>269162</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>152529</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>1015910</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>162976</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>324305</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>182418</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>204778</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>188603</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>201782</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>124587</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>204392</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>229194</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>156313</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>76192</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>89330</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>41412</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>1283196</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>207057</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>23897</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>2226830</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>2892783</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>921344</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>2528065</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>1781316</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>5715009</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>2453498</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>2256589</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>3657601</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>2588839</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>1747318</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>1181981</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>1068201</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>2159577</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>1193725</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>1146435</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>1709994</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>1562509</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>943337</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>2316489</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>3500023</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>1666510</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>395098</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>1081009</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>323788</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>2497938</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>313325</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>2859630</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>2254513</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>601099</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>661404</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>182388</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>1711627</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>1665025</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>916427</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>912917</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>1192007</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>714574</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>784207</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>1268396</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>974579</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>1167401</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>878374</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>954706</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>871596</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>885122</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>1365207</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>858865</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>628922</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>1246691</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>851478</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>1223198</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>1140675</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>1027489</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>759128</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>957024</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>756079</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>886197</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>1296281</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>1433515</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>1796004</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>121474</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>516102</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>188928</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>1757686</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>301870</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>248094</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>421295</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>995264</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>729364</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>1193512</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>422732</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>553388</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>869894</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>693104</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>1030790</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>1153803</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>1561392</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>2576596</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>1036823</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>2430185</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>1604897</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>768912</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>676703</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>1155214</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>1605307</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>2183682</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>1099504</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>1253078</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>1048799</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>679888</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>628609</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>829899</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>1243906</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>1163614</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>1188478</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>1285018</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>970894</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>958082</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>863004</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>1081204</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>284003</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>139995</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>861414</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>233123</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>197696</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>127279</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>176099</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>2874699</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>203997</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>1205203</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>1288103</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>3584770</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>1493591</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>2139891</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>425103</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>666600</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>1644899</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>274937</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>441034</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>643474</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>503900</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>177384</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>225094</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>412822</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>653604</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>914279</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>675222</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>930797</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>1183204</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>449680</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>245387</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>478967</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>140890</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>216515</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>468509</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>166407</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>125776</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>252704</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>372777</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>463980</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>249711</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>213596</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>202890</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>137714</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>251611</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>317292</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>272084</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>159081</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>329198</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>159614</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>263207</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>70719</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>331894</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>142804</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>280118</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>91512</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>186312</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>412708</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>529684</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>247084</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>367790</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>258216</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>457701</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>495087</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>407901</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>254712</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>197683</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>202306</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>109101</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>562917</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>627021</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>215296</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>295349</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>446094</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>353844</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>134543</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>129287</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>59775</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>78341</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>189975</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>165306</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>126181</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>115054</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>120254</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>115604</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>275667</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>334328</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>331326</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>571573</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>306195</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>186672</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>232587</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>266501</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>231594</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>247106</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>343193</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>127503</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>692793</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>248423</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>274206</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>146998</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>752091</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>347468</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>220601</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>157711</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>26305</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>636012</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>907249</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>170611</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>83788</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>135770</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>25084</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>193390</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>189223</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>240505</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>335321</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>130493</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>90678</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>208013</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>200985</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>78437</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>65976</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>105714</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>64171</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>70610</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>430133</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>212409</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>103711</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>123872</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>116811</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>365616</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>117330</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>245993</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>299174</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>230996</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>155593</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>474339</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>150820</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>234588</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>72298</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>122985</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>379782</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>133003</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>415713</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>185581</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>359787</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>292983</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>748200</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>241208</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>346383</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>329791</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>172767</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>751026</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>226466</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>395583</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>296125</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>372230</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>203320</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>356305</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>231519</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>308001</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>287874</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>228414</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>1489011</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>142097</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>176907</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>270592</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>298329</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>244324</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>194280</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>304214</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>175497</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>95386</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>144681</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>62088</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>60884</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>185394</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>33212</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>370728</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>162780</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>158333</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>374923</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>153991</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>157186</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>112975</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>210782</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>169072</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>432692</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>156973</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>279393</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>165230</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>127601</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>111825</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>99284</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>371479</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>135687</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>93780</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>170494</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>111573</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>72673</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>61330</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>444797</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>71732</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>114502</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>52813</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>99196</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>227280</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>187104</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>90070</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>64001</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>51928</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>223111</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>99337</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>76102</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>56882</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>31072</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>61794</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>166780</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>45019</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>84906</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A477">
         <v>47301</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A478">
         <v>13785</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A479">
         <v>39191</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A480">
         <v>22983</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A481">
         <v>29731</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A482">
         <v>239815</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A483">
         <v>223389</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A484">
         <v>212811</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A485">
         <v>125975</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A486">
         <v>145101</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A487">
         <v>95007</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A488">
         <v>144697</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A489">
         <v>170193</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A490">
         <v>123591</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A491">
         <v>210413</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A492">
         <v>66209</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A493">
         <v>94671</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A494">
         <v>92909</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A495">
         <v>187021</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A496">
         <v>73473</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A497">
         <v>136576</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A498">
         <v>38210</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A499">
         <v>55018</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A500">
         <v>29480</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A501">
         <v>19104</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A502">
         <v>22313</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A503">
         <v>97012</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A504">
         <v>176687</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A505">
         <v>47487</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A506">
         <v>60822</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A507">
         <v>107822</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A508">
         <v>94997</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A509">
         <v>48318</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A510">
         <v>72206</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A511">
         <v>293690</v>
       </c>
